--- a/PycharmProjects/opportunity_constructs/user_defined_spreads.xlsx
+++ b/PycharmProjects/opportunity_constructs/user_defined_spreads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>weight1</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>tickerHead4</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>wkw</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -547,6 +553,23 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PycharmProjects/opportunity_constructs/user_defined_spreads.xlsx
+++ b/PycharmProjects/opportunity_constructs/user_defined_spreads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>weight1</t>
   </si>
@@ -89,6 +89,48 @@
   </si>
   <si>
     <t>wkw</t>
+  </si>
+  <si>
+    <t>hoRbCrack</t>
+  </si>
+  <si>
+    <t>gcSI</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>esNq</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>NQ</t>
+  </si>
+  <si>
+    <t>UsTy</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>TyFv</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>FvTu</t>
+  </si>
+  <si>
+    <t>TU</t>
   </si>
 </sst>
 </file>
@@ -420,16 +462,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -498,75 +541,183 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
+      <c r="G4">
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
         <v>-1</v>
       </c>
     </row>
